--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.179395</v>
+        <v>0.9167996666666666</v>
       </c>
       <c r="H2">
-        <v>6.538185</v>
+        <v>2.750399</v>
       </c>
       <c r="I2">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="J2">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.217641</v>
+        <v>1.418869666666667</v>
       </c>
       <c r="N2">
-        <v>15.652923</v>
+        <v>4.256609</v>
       </c>
       <c r="O2">
-        <v>0.3148443262844371</v>
+        <v>0.1110803932403577</v>
       </c>
       <c r="P2">
-        <v>0.3148443262844371</v>
+        <v>0.1110803932403577</v>
       </c>
       <c r="Q2">
-        <v>11.371300707195</v>
+        <v>1.300819237443444</v>
       </c>
       <c r="R2">
-        <v>102.341706364755</v>
+        <v>11.707373136991</v>
       </c>
       <c r="S2">
-        <v>0.1525426738611221</v>
+        <v>0.03147415149377101</v>
       </c>
       <c r="T2">
-        <v>0.1525426738611221</v>
+        <v>0.03147415149377101</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.179395</v>
+        <v>0.9167996666666666</v>
       </c>
       <c r="H3">
-        <v>6.538185</v>
+        <v>2.750399</v>
       </c>
       <c r="I3">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="J3">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>27.582491</v>
       </c>
       <c r="O3">
-        <v>0.5547967492168427</v>
+        <v>0.7197921976927236</v>
       </c>
       <c r="P3">
-        <v>0.5547967492168427</v>
+        <v>0.7197921976927237</v>
       </c>
       <c r="Q3">
-        <v>20.037714324315</v>
+        <v>8.429206184878776</v>
       </c>
       <c r="R3">
-        <v>180.339428918835</v>
+        <v>75.862855663909</v>
       </c>
       <c r="S3">
-        <v>0.2688000783553548</v>
+        <v>0.2039500222617523</v>
       </c>
       <c r="T3">
-        <v>0.2688000783553548</v>
+        <v>0.2039500222617524</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.179395</v>
+        <v>0.9167996666666666</v>
       </c>
       <c r="H4">
-        <v>6.538185</v>
+        <v>2.750399</v>
       </c>
       <c r="I4">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="J4">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>2.160325</v>
       </c>
       <c r="N4">
-        <v>6.480975</v>
+        <v>6.480974999999999</v>
       </c>
       <c r="O4">
-        <v>0.1303589244987201</v>
+        <v>0.1691274090669186</v>
       </c>
       <c r="P4">
-        <v>0.1303589244987201</v>
+        <v>0.1691274090669185</v>
       </c>
       <c r="Q4">
-        <v>4.708201503374999</v>
+        <v>1.980585239891666</v>
       </c>
       <c r="R4">
-        <v>42.373813530375</v>
+        <v>17.825267159025</v>
       </c>
       <c r="S4">
-        <v>0.06315914642441452</v>
+        <v>0.04792152367702614</v>
       </c>
       <c r="T4">
-        <v>0.06315914642441452</v>
+        <v>0.04792152367702613</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.204665</v>
       </c>
       <c r="I5">
-        <v>0.1633732264179005</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="J5">
-        <v>0.1633732264179005</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.217641</v>
+        <v>1.418869666666667</v>
       </c>
       <c r="N5">
-        <v>15.652923</v>
+        <v>4.256609</v>
       </c>
       <c r="O5">
-        <v>0.3148443262844371</v>
+        <v>0.1110803932403577</v>
       </c>
       <c r="P5">
-        <v>0.3148443262844371</v>
+        <v>0.1110803932403577</v>
       </c>
       <c r="Q5">
-        <v>3.834383498421666</v>
+        <v>1.042710764553889</v>
       </c>
       <c r="R5">
-        <v>34.509451485795</v>
+        <v>9.384396880984999</v>
       </c>
       <c r="S5">
-        <v>0.05143713340445868</v>
+        <v>0.02522905229496326</v>
       </c>
       <c r="T5">
-        <v>0.05143713340445868</v>
+        <v>0.02522905229496326</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.204665</v>
       </c>
       <c r="I6">
-        <v>0.1633732264179005</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="J6">
-        <v>0.1633732264179005</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>27.582491</v>
       </c>
       <c r="O6">
-        <v>0.5547967492168427</v>
+        <v>0.7197921976927236</v>
       </c>
       <c r="P6">
-        <v>0.5547967492168427</v>
+        <v>0.7197921976927237</v>
       </c>
       <c r="Q6">
         <v>6.756683613390555</v>
       </c>
       <c r="R6">
-        <v>60.81015252051499</v>
+        <v>60.810152520515</v>
       </c>
       <c r="S6">
-        <v>0.0906389349257184</v>
+        <v>0.1634822714194218</v>
       </c>
       <c r="T6">
-        <v>0.0906389349257184</v>
+        <v>0.1634822714194218</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.204665</v>
       </c>
       <c r="I7">
-        <v>0.1633732264179005</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="J7">
-        <v>0.1633732264179005</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,13 +865,13 @@
         <v>2.160325</v>
       </c>
       <c r="N7">
-        <v>6.480975</v>
+        <v>6.480974999999999</v>
       </c>
       <c r="O7">
-        <v>0.1303589244987201</v>
+        <v>0.1691274090669186</v>
       </c>
       <c r="P7">
-        <v>0.1303589244987201</v>
+        <v>0.1691274090669185</v>
       </c>
       <c r="Q7">
         <v>1.587597638708333</v>
@@ -880,10 +880,10 @@
         <v>14.288378748375</v>
       </c>
       <c r="S7">
-        <v>0.0212971580877234</v>
+        <v>0.03841293790370445</v>
       </c>
       <c r="T7">
-        <v>0.0212971580877234</v>
+        <v>0.03841293790370445</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.583934333333333</v>
+        <v>1.583934333333334</v>
       </c>
       <c r="H8">
-        <v>4.751803</v>
+        <v>4.751803000000001</v>
       </c>
       <c r="I8">
-        <v>0.3521248749412083</v>
+        <v>0.4895300409493609</v>
       </c>
       <c r="J8">
-        <v>0.3521248749412082</v>
+        <v>0.4895300409493609</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.217641</v>
+        <v>1.418869666666667</v>
       </c>
       <c r="N8">
-        <v>15.652923</v>
+        <v>4.256609</v>
       </c>
       <c r="O8">
-        <v>0.3148443262844371</v>
+        <v>0.1110803932403577</v>
       </c>
       <c r="P8">
-        <v>0.3148443262844371</v>
+        <v>0.1110803932403577</v>
       </c>
       <c r="Q8">
-        <v>8.264400718907666</v>
+        <v>2.247396379558556</v>
       </c>
       <c r="R8">
-        <v>74.37960647016899</v>
+        <v>20.226567416027</v>
       </c>
       <c r="S8">
-        <v>0.1108645190188564</v>
+        <v>0.05437718945162341</v>
       </c>
       <c r="T8">
-        <v>0.1108645190188564</v>
+        <v>0.05437718945162341</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.583934333333333</v>
+        <v>1.583934333333334</v>
       </c>
       <c r="H9">
-        <v>4.751803</v>
+        <v>4.751803000000001</v>
       </c>
       <c r="I9">
-        <v>0.3521248749412083</v>
+        <v>0.4895300409493609</v>
       </c>
       <c r="J9">
-        <v>0.3521248749412082</v>
+        <v>0.4895300409493609</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>27.582491</v>
       </c>
       <c r="O9">
-        <v>0.5547967492168427</v>
+        <v>0.7197921976927236</v>
       </c>
       <c r="P9">
-        <v>0.5547967492168427</v>
+        <v>0.7197921976927237</v>
       </c>
       <c r="Q9">
         <v>14.56295149791922</v>
@@ -1004,10 +1004,10 @@
         <v>131.066563481273</v>
       </c>
       <c r="S9">
-        <v>0.1953577359357696</v>
+        <v>0.3523599040115495</v>
       </c>
       <c r="T9">
-        <v>0.1953577359357696</v>
+        <v>0.3523599040115495</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.583934333333333</v>
+        <v>1.583934333333334</v>
       </c>
       <c r="H10">
-        <v>4.751803</v>
+        <v>4.751803000000001</v>
       </c>
       <c r="I10">
-        <v>0.3521248749412083</v>
+        <v>0.4895300409493609</v>
       </c>
       <c r="J10">
-        <v>0.3521248749412082</v>
+        <v>0.4895300409493609</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,13 +1051,13 @@
         <v>2.160325</v>
       </c>
       <c r="N10">
-        <v>6.480975</v>
+        <v>6.480974999999999</v>
       </c>
       <c r="O10">
-        <v>0.1303589244987201</v>
+        <v>0.1691274090669186</v>
       </c>
       <c r="P10">
-        <v>0.1303589244987201</v>
+        <v>0.1691274090669185</v>
       </c>
       <c r="Q10">
         <v>3.421812938658333</v>
@@ -1066,10 +1066,10 @@
         <v>30.796316447925</v>
       </c>
       <c r="S10">
-        <v>0.04590261998658224</v>
+        <v>0.08279294748618796</v>
       </c>
       <c r="T10">
-        <v>0.04590261998658223</v>
+        <v>0.08279294748618794</v>
       </c>
     </row>
   </sheetData>
